--- a/RTE.xlsx
+++ b/RTE.xlsx
@@ -417,7 +417,7 @@
         <v>Identidad Cliente</v>
       </c>
       <c r="E1" t="str">
-        <v>Nombre</v>
+        <v>Nombre Completo</v>
       </c>
       <c r="F1" t="str">
         <v>Origen de fondos</v>
@@ -432,7 +432,7 @@
         <v>Monto de transaccion</v>
       </c>
       <c r="J1" t="str">
-        <v>Filial Operacio</v>
+        <v>Filial Operacion</v>
       </c>
       <c r="K1" t="str">
         <v>Colaborador Usuario</v>
@@ -443,28 +443,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>005-002-17589</v>
+        <v>005-001-000050692</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>85182</v>
       </c>
       <c r="C2" t="str">
-        <v>Filial La Entrada Copán</v>
+        <v>Oficina Principal</v>
       </c>
       <c r="D2" t="str">
-        <v>1415-1998-01225</v>
+        <v>0401199000671</v>
       </c>
       <c r="E2" t="str">
-        <v>MANU VILLEDA</v>
+        <v>JEFRY ELI CONTRERAS AGUILAR</v>
       </c>
       <c r="F2" t="str">
-        <v>Venta de una propiedad</v>
+        <v>Otros (especificar en observaciones)</v>
       </c>
       <c r="G2" t="str">
         <v>Depósito</v>
       </c>
       <c r="H2" s="1">
-        <v>44711.45756944444</v>
+        <v>44720.60199074074</v>
       </c>
       <c r="I2">
         <v>150000</v>
@@ -476,36 +476,36 @@
         <v>MJVG</v>
       </c>
       <c r="L2" t="str">
-        <v>prueba</v>
+        <v>venta de un vehículo</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>005-002-14578</v>
+        <v>005-001-000002598</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>4368</v>
       </c>
       <c r="C3" t="str">
-        <v>Filial La Entrada Copán</v>
+        <v>Oficina Principal</v>
       </c>
       <c r="D3" t="str">
-        <v>1415-1998-01225</v>
+        <v>0401199801225</v>
       </c>
       <c r="E3" t="str">
-        <v>MANU VILLEDA</v>
+        <v>MANUEL JESUS VILLEDA GOMEZ</v>
       </c>
       <c r="F3" t="str">
-        <v>Venta de una propiedad</v>
+        <v>Depósito de otro sujeto obligado</v>
       </c>
       <c r="G3" t="str">
         <v>Depósito</v>
       </c>
       <c r="H3" s="1">
-        <v>44711.45949074074</v>
+        <v>44720.404641203706</v>
       </c>
       <c r="I3">
-        <v>145000</v>
+        <v>1000000</v>
       </c>
       <c r="J3" t="str">
         <v>Oficina Principal</v>
@@ -514,12 +514,12 @@
         <v>MJVG</v>
       </c>
       <c r="L3" t="str">
-        <v>prueba</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>005-1-2598</v>
+        <v>005-001-000002598</v>
       </c>
       <c r="B4">
         <v>4368</v>
@@ -528,22 +528,22 @@
         <v>Oficina Principal</v>
       </c>
       <c r="D4" t="str">
-        <v>0401-1998-01225</v>
+        <v>1719195800017</v>
       </c>
       <c r="E4" t="str">
-        <v>JESÚS GÓMEZ</v>
+        <v>MANUEL DE JESUS REYES COREA</v>
       </c>
       <c r="F4" t="str">
         <v>Venta de una propiedad</v>
       </c>
       <c r="G4" t="str">
-        <v>Depósito</v>
+        <v>Pago a Préstamo</v>
       </c>
       <c r="H4" s="1">
-        <v>44713.423738425925</v>
+        <v>44714.59824074074</v>
       </c>
       <c r="I4">
-        <v>100000</v>
+        <v>150555</v>
       </c>
       <c r="J4" t="str">
         <v>Oficina Principal</v>
@@ -552,12 +552,12 @@
         <v>MJVG</v>
       </c>
       <c r="L4" t="str">
-        <v>prueba</v>
+        <v>Prueba 3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>005-1-2598</v>
+        <v>005-001-000002598</v>
       </c>
       <c r="B5">
         <v>4368</v>
@@ -566,10 +566,10 @@
         <v>Oficina Principal</v>
       </c>
       <c r="D5" t="str">
-        <v>0401-1998-01225</v>
+        <v>1719195800017</v>
       </c>
       <c r="E5" t="str">
-        <v>JESÚS GÓMEZ</v>
+        <v>MANUEL DE JESUS REYES COREA</v>
       </c>
       <c r="F5" t="str">
         <v>Ahorros en otras inst. financieras</v>
@@ -578,10 +578,10 @@
         <v>Depósito</v>
       </c>
       <c r="H5" s="1">
-        <v>44713.431655092594</v>
+        <v>44714.59569444445</v>
       </c>
       <c r="I5">
-        <v>100500</v>
+        <v>100000</v>
       </c>
       <c r="J5" t="str">
         <v>Oficina Principal</v>
@@ -590,24 +590,24 @@
         <v>MJVG</v>
       </c>
       <c r="L5" t="str">
-        <v>prueba</v>
+        <v>Prueba 3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>005-001-14759</v>
+        <v>005-001-000002598</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>4368</v>
       </c>
       <c r="C6" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="D6" t="str">
-        <v>0401-2001-01227</v>
+        <v>1719195800017</v>
       </c>
       <c r="E6" t="str">
-        <v xml:space="preserve">NICOLL MARTÍNEZ </v>
+        <v>MANUEL DE JESUS REYES COREA</v>
       </c>
       <c r="F6" t="str">
         <v>Venta de una propiedad</v>
@@ -616,10 +616,10 @@
         <v>Depósito</v>
       </c>
       <c r="H6" s="1">
-        <v>44711.483252314814</v>
+        <v>44714.59409722222</v>
       </c>
       <c r="I6">
-        <v>150001</v>
+        <v>150500</v>
       </c>
       <c r="J6" t="str">
         <v>Oficina Principal</v>
@@ -628,50 +628,50 @@
         <v>MJVG</v>
       </c>
       <c r="L6" t="str">
-        <v>prueba</v>
+        <v>Pruebas 2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>005-005-2425</v>
+        <v>005-001-000002598</v>
       </c>
       <c r="B7">
-        <v>1427</v>
+        <v>4368</v>
       </c>
       <c r="C7" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="D7" t="str">
-        <v>0401199801225</v>
+        <v>1719195800017</v>
       </c>
       <c r="E7" t="str">
-        <v>MANUEL JESUS VILLEDA GOMEZ</v>
+        <v>MANUEL DE JESUS REYES COREA</v>
       </c>
       <c r="F7" t="str">
-        <v>Desconozco el origen</v>
+        <v>Venta de un vehiculo</v>
       </c>
       <c r="G7" t="str">
-        <v>Retiro</v>
+        <v>Depósito</v>
       </c>
       <c r="H7" s="1">
-        <v>44625.42306712963</v>
+        <v>44714.59096064815</v>
       </c>
       <c r="I7">
-        <v>250000.5</v>
+        <v>100000</v>
       </c>
       <c r="J7" t="str">
-        <v>Filial La Entrada Copán</v>
+        <v>Oficina Principal</v>
       </c>
       <c r="K7" t="str">
-        <v>AA</v>
+        <v>MJVG</v>
       </c>
       <c r="L7" t="str">
-        <v>prueba</v>
+        <v xml:space="preserve">prueba </v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>005-001-000002598</v>
+        <v>005-1-2598</v>
       </c>
       <c r="B8">
         <v>4368</v>
@@ -680,22 +680,22 @@
         <v>Oficina Principal</v>
       </c>
       <c r="D8" t="str">
-        <v>0401199801225</v>
+        <v>0401-1998-01225</v>
       </c>
       <c r="E8" t="str">
-        <v>MANUEL JESUS VILLEDA GOMEZ</v>
+        <v>JESÚS GÓMEZ</v>
       </c>
       <c r="F8" t="str">
-        <v>Depósito de otro sujeto obligado</v>
+        <v>Ahorros en otras inst. financieras</v>
       </c>
       <c r="G8" t="str">
         <v>Depósito</v>
       </c>
       <c r="H8" s="1">
-        <v>44720.404641203706</v>
+        <v>44713.431655092594</v>
       </c>
       <c r="I8">
-        <v>1000000</v>
+        <v>100500</v>
       </c>
       <c r="J8" t="str">
         <v>Oficina Principal</v>
@@ -704,12 +704,12 @@
         <v>MJVG</v>
       </c>
       <c r="L8" t="str">
-        <v/>
+        <v>prueba</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>005-001-000002598</v>
+        <v>005-1-2598</v>
       </c>
       <c r="B9">
         <v>4368</v>
@@ -718,10 +718,10 @@
         <v>Oficina Principal</v>
       </c>
       <c r="D9" t="str">
-        <v>1719195800017</v>
+        <v>0401-1998-01225</v>
       </c>
       <c r="E9" t="str">
-        <v>MANUEL DE JESUS REYES COREA</v>
+        <v>JESÚS GÓMEZ</v>
       </c>
       <c r="F9" t="str">
         <v>Venta de una propiedad</v>
@@ -730,10 +730,10 @@
         <v>Depósito</v>
       </c>
       <c r="H9" s="1">
-        <v>44714.59409722222</v>
+        <v>44713.423738425925</v>
       </c>
       <c r="I9">
-        <v>150500</v>
+        <v>100000</v>
       </c>
       <c r="J9" t="str">
         <v>Oficina Principal</v>
@@ -742,36 +742,36 @@
         <v>MJVG</v>
       </c>
       <c r="L9" t="str">
-        <v>Pruebas 2</v>
+        <v>prueba</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>005-001-000002598</v>
+        <v>005-001-14759</v>
       </c>
       <c r="B10">
-        <v>4368</v>
+        <v>15</v>
       </c>
       <c r="C10" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="D10" t="str">
-        <v>1719195800017</v>
+        <v>0401-2001-01227</v>
       </c>
       <c r="E10" t="str">
-        <v>MANUEL DE JESUS REYES COREA</v>
+        <v xml:space="preserve">NICOLL MARTÍNEZ </v>
       </c>
       <c r="F10" t="str">
-        <v>Venta de un vehiculo</v>
+        <v>Venta de una propiedad</v>
       </c>
       <c r="G10" t="str">
         <v>Depósito</v>
       </c>
       <c r="H10" s="1">
-        <v>44714.59096064815</v>
+        <v>44711.483252314814</v>
       </c>
       <c r="I10">
-        <v>100000</v>
+        <v>150001</v>
       </c>
       <c r="J10" t="str">
         <v>Oficina Principal</v>
@@ -780,36 +780,36 @@
         <v>MJVG</v>
       </c>
       <c r="L10" t="str">
-        <v xml:space="preserve">prueba </v>
+        <v>prueba</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>005-001-000002598</v>
+        <v>005-002-14578</v>
       </c>
       <c r="B11">
-        <v>4368</v>
+        <v>15</v>
       </c>
       <c r="C11" t="str">
-        <v>Oficina Principal</v>
+        <v>Filial La Entrada Copán</v>
       </c>
       <c r="D11" t="str">
-        <v>1719195800017</v>
+        <v>1415-1998-01225</v>
       </c>
       <c r="E11" t="str">
-        <v>MANUEL DE JESUS REYES COREA</v>
+        <v>MANU VILLEDA</v>
       </c>
       <c r="F11" t="str">
-        <v>Ahorros en otras inst. financieras</v>
+        <v>Venta de una propiedad</v>
       </c>
       <c r="G11" t="str">
         <v>Depósito</v>
       </c>
       <c r="H11" s="1">
-        <v>44714.59569444445</v>
+        <v>44711.45949074074</v>
       </c>
       <c r="I11">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="J11" t="str">
         <v>Oficina Principal</v>
@@ -818,36 +818,36 @@
         <v>MJVG</v>
       </c>
       <c r="L11" t="str">
-        <v>Prueba 3</v>
+        <v>prueba</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>005-001-000002598</v>
+        <v>005-002-17589</v>
       </c>
       <c r="B12">
-        <v>4368</v>
+        <v>15</v>
       </c>
       <c r="C12" t="str">
-        <v>Oficina Principal</v>
+        <v>Filial La Entrada Copán</v>
       </c>
       <c r="D12" t="str">
-        <v>1719195800017</v>
+        <v>1415-1998-01225</v>
       </c>
       <c r="E12" t="str">
-        <v>MANUEL DE JESUS REYES COREA</v>
+        <v>MANU VILLEDA</v>
       </c>
       <c r="F12" t="str">
         <v>Venta de una propiedad</v>
       </c>
       <c r="G12" t="str">
-        <v>Pago a Préstamo</v>
+        <v>Depósito</v>
       </c>
       <c r="H12" s="1">
-        <v>44714.59824074074</v>
+        <v>44711.45756944444</v>
       </c>
       <c r="I12">
-        <v>150555</v>
+        <v>150000</v>
       </c>
       <c r="J12" t="str">
         <v>Oficina Principal</v>
@@ -856,45 +856,45 @@
         <v>MJVG</v>
       </c>
       <c r="L12" t="str">
-        <v>Prueba 3</v>
+        <v>prueba</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>005-001-000050692</v>
+        <v>005-005-2425</v>
       </c>
       <c r="B13">
-        <v>85182</v>
+        <v>1427</v>
       </c>
       <c r="C13" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="D13" t="str">
-        <v>0401199000671</v>
+        <v>0401199801225</v>
       </c>
       <c r="E13" t="str">
-        <v>JEFRY ELI CONTRERAS AGUILAR</v>
+        <v>MANUEL JESUS VILLEDA GOMEZ</v>
       </c>
       <c r="F13" t="str">
-        <v>Otros (especificar en observaciones)</v>
+        <v>Desconozco el origen</v>
       </c>
       <c r="G13" t="str">
-        <v>Depósito</v>
+        <v>Retiro</v>
       </c>
       <c r="H13" s="1">
-        <v>44720.60199074074</v>
+        <v>44625.42306712963</v>
       </c>
       <c r="I13">
-        <v>150000</v>
+        <v>250000.5</v>
       </c>
       <c r="J13" t="str">
-        <v>Oficina Principal</v>
+        <v>Filial La Entrada Copán</v>
       </c>
       <c r="K13" t="str">
-        <v>MJVG</v>
+        <v>AA</v>
       </c>
       <c r="L13" t="str">
-        <v>venta de un vehículo</v>
+        <v>prueba</v>
       </c>
     </row>
   </sheetData>
